--- a/mlxg.xlsx
+++ b/mlxg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="180">
   <si>
     <t>rid</t>
   </si>
@@ -128,6 +128,48 @@
   </si>
   <si>
     <t>无挂碍-</t>
+  </si>
+  <si>
+    <t>小刘还没瘦-</t>
+  </si>
+  <si>
+    <t>黔西市讯</t>
+  </si>
+  <si>
+    <t>心空身尘2</t>
+  </si>
+  <si>
+    <t>泥香香</t>
+  </si>
+  <si>
+    <t>新加坡达哥</t>
+  </si>
+  <si>
+    <t>陳陳陳陈安心</t>
+  </si>
+  <si>
+    <t>深水埗李師傅</t>
+  </si>
+  <si>
+    <t>J_淼淼</t>
+  </si>
+  <si>
+    <t>雨山书屋</t>
+  </si>
+  <si>
+    <t>老记宋军</t>
+  </si>
+  <si>
+    <t>今夜月美愿君亡</t>
+  </si>
+  <si>
+    <t>已经不再年轻的岁月</t>
+  </si>
+  <si>
+    <t>纽斯频中文网</t>
+  </si>
+  <si>
+    <t>随笔南洋网</t>
   </si>
   <si>
     <t>黄v</t>
@@ -310,6 +352,99 @@
     <t>惊现活化石！#疫情# 上海·陆家浜路(地铁站)</t>
   </si>
   <si>
+    <t>都四月了，疫情补贴还能下来吗别的地方都发第二轮了#疫情##补贴##疫情补贴#</t>
+  </si>
+  <si>
+    <t>新冠肺炎发现变异株，现已感染50例。
+4月8日，中国疾控中心发布全国新型冠状病毒感染疫情最新情况，对比4月1日中疾控通报数据，3月30日至4月6日，新发现本土重点关注变异株50例。#新冠##疫情防控##疫情##新冠病毒新毒株在英已经失去控制# 竹笋野生笋丝碳烤笋纯嫩笋尖糯米笋湖南桃江特产免切免泡发包邮</t>
+  </si>
+  <si>
+    <t>#新冠病毒# 中疾控回应新冠病毒最有可能的起源。。。。一直没有听懂，这种病毒最后可能只有土中医搞懂事，👍大道至简。。。。#疫情# @凤凰卫视 @新京报 @人民日报 @北京人的同城事儿 @三湘都市报 中医 心空身尘2的微博视频</t>
+  </si>
+  <si>
+    <t>跟我的孕后期同事提示风险
+并不是没来由的瞎说
+谁不希望大家都好呢
+万一说了之后能避免悲剧发生
+何乐而不为呢？
+#疫情##新冠疫情##日本首次发现疑似母婴感染新冠病例#</t>
+  </si>
+  <si>
+    <t>方老视点 注意！
+#疫情# 动态 为何今年南方流感格外严重？专家：受降温和对甲流免疫力普遍降低影响
+近期，广东多地流感就诊人数仍居高不下。据国家流感中心最新监测数据显示，北方流感阳性率下降的同时，南方省份阳性率仍保持在高位。
+一个班19名学生请假，多所学校因甲流停课
+“我们班前两天有19名患甲流的学生请假，周二停课，周四刚刚复课。”一位在广东深圳公立小学任教的老师4月5日向人民日报健康客户端记者表示，出现此类情况的不止自己的班级，多所学校都出现了因甲流感染者增加而停课的现象。广东中山的一名中学教师同样告诉人民日报健康客户端记者，近期班级中每天都有三四名因甲流请假的学生。
+4月6日，人民日报健康客户端记者致电广州多家三甲医院的发热门诊，均表示近期发热患者数量较多，就诊需要排队。“一般要排一个小时左右。”一名发热门诊工作人员表示。
+据一位广州市民介绍，4月4日她在广州某医院发热门诊排队近两小时，才仅仅做了一个血常规检查，“发热门诊全是高烧的患者，不少人还上吐下泻，简直赶上去年年底新冠流行的那时候了。”
+目前，甲流在我国北方已有所减弱，但南方地区仍有流行趋势。据国家流感中心发布的《流感监测周报》，自第7周起，南方省份哨点医院报告的流感样病例就诊比例上升，第10周（3月6日-3月12日）上升至10.1%后一直保持高位，且高于往年同期水平。
+而在北方省份哨点医院，流感样病例就诊比例在第7周上升，第10周达到高峰后，呈下降趋势。
+据中国疾控中心发布的《中国流感疫苗预防接种技术指南（2022-2023）》，一项2013年的研究显示，我国甲型流感的年度周期性随纬度增加而增强，且呈多样化的空间模式和季节性特征：北纬33度以北的北方省份，呈冬季流行模式，每年1～2月份单一年度高峰；北纬27度以南的南方省份，每年4～6月份单一年度高峰；中纬度地区则在每年1～2月份和6～8月份呈双周期高峰。
+今年流感格外严重？专家：原因有多方面
+“流感在我国部分南方省份呈现双峰分布模式，即夏季高峰和冬春季高峰。其中冬春季高峰几乎每年都会出现，而夏季高峰并不是每年都会出现。”南方医科大学公共卫生学院生物安全研究中心主任赵卫在接受人民日报健康客户端记者采访时表示。
+针对今年甲流为何格外严重，中国疾病预防控制中心前流行病学首席专家曾光教授4月5日在社交平台撰文指出，“一波新冠疫情过去以后，人们刚要松一口气，流感疫情来了。第一流感病例增加，第二人们对传染病有畏惧的心理，这两方面的原因造成我们对流感疫情高度重视。”
+“近3年由于新冠防控措施的实行，甲型H1N1亚型流感病毒未在我国流行，导致人群对甲型H1N1流感病毒的免疫力普遍降低，这可能是与往年相比南方流感季延长的主要原因。此外，广东最近降温，也是流感病毒传播的有利因素。”赵卫说。
+接种疫苗和锻炼均可提高对流感的抵抗力
+随着流感流行期延长，北京多区延长流感疫苗接种至3月底，广州疾控则在3月31日公布了近期流感疫苗接种点。
+赵卫表示，延长接种是根据目前的流感疫情现状做出的决定。“因为每年流行的流感病毒不同，而且诱导机体产生的免疫力没有交叉保护作用，因此流感疫苗每年都会变化，以预防不同类型的流感病毒。如果想减少患流感的概率，需要每年都接种流感疫苗。近期季节性流感活动强度仍呈上升趋势，因此接种流感疫苗对控制疫情仍有一定的价值。”
+赵卫提醒，所有人都可以通过加强身体锻炼提高身体素质，从而增强对流感这一类呼吸道传染病的抵抗能力。
+（文章来源：人民日报健康客户端） #老方话民生##带着微博走天下#</t>
+  </si>
+  <si>
+    <t>我东莞朋友又开始发烧。
+我前几天有顾客说广州的侄子从广州转回来开平在张立群医院，用的全是新冠药，也没公开说有人复阳。都已危重病人了。复阳不是一般人受得了的。
+本来阳过三个月抗体减弱，复阳可能性很大了。
+阳过本来身体还没恢复，不管是什么病毒都很要命的。
+大家要小心些，多洗手，戴口罩。
+#疫情##疫情防控##复阳##甲流#</t>
+  </si>
+  <si>
+    <t>新加坡新冠甲流开始爆发了，希望大家一定要照顾好自己。#疫情 ##新冠海外疫情##疫情爆发##新加坡##甲流##新加坡达哥##海外# 新加坡·China Town 新加坡达哥的微博视频</t>
+  </si>
+  <si>
+    <t>小小的一个善意，就可以让人温暖好久好久！#疫情 ##感人 ##温暖##治愈# 陳陳陳陈安心的微博视频</t>
+  </si>
+  <si>
+    <t>#疫情#
+自從染了美國肺炎後，出現了遺尿遺便情況，吃了西藥也沒改善，旖屁時也常把便便噴出，這都是支持躺平的人害的
+現在正鍛練中國氣功，有改善後會再和各位分享。</t>
+  </si>
+  <si>
+    <t>日本旅游攻略日本🇯🇵最新入境政策：
+4月5日开始，中国-日本有三次疫苗证明的人免核酸检测
+没有三次疫苗继续需要做核酸（核酸要求72小时，鼻咽，英文/日文报告）#日本##疫情##疫苗#</t>
+  </si>
+  <si>
+    <t>刻印的时候，还是喜欢在桌上垫张旧报纸，刻累了休息时，看一看不久前发生的事……#疫情#</t>
+  </si>
+  <si>
+    <t>世卫组织还在强调新冠大流行，
+提示健康风险，
+尤其是最近世界新一代毒王面世，
+来自印度的XBB.1.16
+#新冠疫情#疫情#疫情# 而且
+这个毒株已经进入中国了[干饭人] 异想后天开的微博视频</t>
+  </si>
+  <si>
+    <t>#书法# 谈不到#写字# 而已。因为#疫情# 练了三年，因为#脑梗# 回到从前。如今身体恢复，。计划再练一年，争取回到之前。再次感恩@南京大俭 @侯骏惠微想 等几位老师鼓励指导。再接再厉，从头练习。</t>
+  </si>
+  <si>
+    <t>#疫情#二哥家里面三个小孩全咳嗽发烧，同事小孩也这样，这别是新毒株吧，看着小孩遭罪真的难受</t>
+  </si>
+  <si>
+    <t>历史自有公断，褪去的浪潮不会了无痕迹。
+#疫情#</t>
+  </si>
+  <si>
+    <t>【国际航班逐渐重启 韩国航空公司闹人荒】新冠#疫情#阴霾消散，全球国际航班逐渐重启。但韩国 航空公司却出现人力不足的现象，各家航空公司陆续招人填补空白。#NEWSPIM# 网页链接</t>
+  </si>
+  <si>
+    <t>这智力低的，但是可怜，可笑还是可怕啊#新冠疫情##疫情#疫情#甲流##二次感染#</t>
+  </si>
+  <si>
+    <t>新加坡冠病确诊病例最近几个星期出现开年以来最大增幅。三月最后一周通报病例超过2万，单周猛增近一倍。#冠病##疫情# 随笔南洋网的微博视频</t>
+  </si>
+  <si>
     <t>8小时前</t>
   </si>
   <si>
@@ -412,6 +547,81 @@
     <t>3-31 21:51</t>
   </si>
   <si>
+    <t>10小时前</t>
+  </si>
+  <si>
+    <t>4-8 08:49</t>
+  </si>
+  <si>
+    <t>4-7 09:24</t>
+  </si>
+  <si>
+    <t>4-6 22:24</t>
+  </si>
+  <si>
+    <t>4-6 20:19</t>
+  </si>
+  <si>
+    <t>4-6 14:47</t>
+  </si>
+  <si>
+    <t>4-6 13:47</t>
+  </si>
+  <si>
+    <t>4-6 12:10</t>
+  </si>
+  <si>
+    <t>4-6 02:01</t>
+  </si>
+  <si>
+    <t>4-5 17:28</t>
+  </si>
+  <si>
+    <t>4-5 10:22</t>
+  </si>
+  <si>
+    <t>4-5 05:59</t>
+  </si>
+  <si>
+    <t>4-5 01:14</t>
+  </si>
+  <si>
+    <t>4-4 22:55</t>
+  </si>
+  <si>
+    <t>4-4 19:13</t>
+  </si>
+  <si>
+    <t>4-4 14:39</t>
+  </si>
+  <si>
+    <t>4-4 09:37</t>
+  </si>
+  <si>
+    <t>4-4 07:19</t>
+  </si>
+  <si>
+    <t>昨天 16:02</t>
+  </si>
+  <si>
+    <t>昨天 10:14</t>
+  </si>
+  <si>
+    <t>昨天 07:07</t>
+  </si>
+  <si>
+    <t>5小时前</t>
+  </si>
+  <si>
+    <t>7小时前</t>
+  </si>
+  <si>
+    <t>4-9 16:02</t>
+  </si>
+  <si>
+    <t>4-9 07:07</t>
+  </si>
+  <si>
     <t>#疫情#</t>
   </si>
   <si>
@@ -421,16 +631,37 @@
     <t>今日阅读6.2万</t>
   </si>
   <si>
+    <t>今日阅读2.1万</t>
+  </si>
+  <si>
+    <t>今日阅读310</t>
+  </si>
+  <si>
+    <t>今日阅读1.4万</t>
+  </si>
+  <si>
     <t>今日讨论244</t>
   </si>
   <si>
     <t>今日讨论32</t>
   </si>
   <si>
+    <t>今日讨论77</t>
+  </si>
+  <si>
+    <t>今日讨论0</t>
+  </si>
+  <si>
+    <t>今日讨论261</t>
+  </si>
+  <si>
     <t>积极</t>
   </si>
   <si>
     <t>其他</t>
+  </si>
+  <si>
+    <t>创作</t>
   </si>
 </sst>
 </file>
@@ -788,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N42"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,10 +1077,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -861,25 +1092,25 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J2" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M2" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N2" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -890,10 +1121,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -905,25 +1136,25 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -934,10 +1165,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -949,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J4" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M4" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -978,10 +1209,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -993,25 +1224,25 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N5" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -1022,10 +1253,10 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1037,25 +1268,25 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N6" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1066,10 +1297,10 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,25 +1312,25 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1110,10 +1341,10 @@
         <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,25 +1356,25 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L8" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N8" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1154,10 +1385,10 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1169,25 +1400,25 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M9" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1198,10 +1429,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1213,25 +1444,25 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M10" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N10" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1242,10 +1473,10 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,25 +1488,25 @@
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1286,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1301,25 +1532,25 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1330,10 +1561,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1345,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1374,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1389,25 +1620,25 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1418,10 +1649,10 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1433,25 +1664,25 @@
         <v>2</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1462,10 +1693,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,25 +1708,25 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N16" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1506,10 +1737,10 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1521,25 +1752,25 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N17" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1550,10 +1781,10 @@
         <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -1565,25 +1796,25 @@
         <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N18" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1594,10 +1825,10 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,25 +1840,25 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N19" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1638,10 +1869,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1653,25 +1884,25 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1682,10 +1913,10 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1697,25 +1928,25 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1726,10 +1957,10 @@
         <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -1741,25 +1972,25 @@
         <v>38</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="M22" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N22" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1770,10 +2001,10 @@
         <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1785,25 +2016,25 @@
         <v>5</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J23" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K23" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L23" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N23" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1814,10 +2045,10 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1829,25 +2060,25 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M24" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1858,10 +2089,10 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1873,25 +2104,25 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K25" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M25" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N25" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1902,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1917,25 +2148,25 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K26" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L26" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M26" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N26" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1946,10 +2177,10 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1961,25 +2192,25 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K27" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N27" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1990,10 +2221,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2005,25 +2236,25 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K28" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L28" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M28" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N28" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -2034,10 +2265,10 @@
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2049,25 +2280,25 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K29" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N29" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -2078,10 +2309,10 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2093,25 +2324,25 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J30" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L30" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N30" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2122,10 +2353,10 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2137,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N31" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2166,10 +2397,10 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2181,25 +2412,25 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2210,10 +2441,10 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2225,25 +2456,25 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N33" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2254,10 +2485,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2269,25 +2500,25 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J34" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L34" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N34" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2298,10 +2529,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2313,25 +2544,25 @@
         <v>37</v>
       </c>
       <c r="H35" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K35" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L35" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2342,10 +2573,10 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2357,25 +2588,25 @@
         <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L36" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2386,10 +2617,10 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2401,25 +2632,25 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J37" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2430,10 +2661,10 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E38">
         <v>15</v>
@@ -2445,25 +2676,25 @@
         <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="I38" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J38" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K38" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L38" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N38" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2474,10 +2705,10 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2489,25 +2720,25 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="I39" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J39" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K39" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N39" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2518,10 +2749,10 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2533,25 +2764,25 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="I40" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J40" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K40" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M40" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2562,10 +2793,10 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2577,25 +2808,25 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="I41" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
+        <v>166</v>
       </c>
       <c r="K41" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="N41" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2606,40 +2837,2680 @@
         <v>21</v>
       </c>
       <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" t="s">
+        <v>166</v>
+      </c>
+      <c r="J42" t="s">
+        <v>166</v>
+      </c>
+      <c r="K42" t="s">
+        <v>168</v>
+      </c>
+      <c r="L42" t="s">
+        <v>173</v>
+      </c>
+      <c r="M42" t="s">
+        <v>177</v>
+      </c>
+      <c r="N42" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>38</v>
       </c>
-      <c r="D42" t="s">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
+      <c r="J43" t="s">
+        <v>166</v>
+      </c>
+      <c r="K43" t="s">
+        <v>169</v>
+      </c>
+      <c r="L43" t="s">
+        <v>174</v>
+      </c>
+      <c r="M43" t="s">
+        <v>177</v>
+      </c>
+      <c r="N43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" t="s">
+        <v>166</v>
+      </c>
+      <c r="J44" t="s">
+        <v>166</v>
+      </c>
+      <c r="K44" t="s">
+        <v>169</v>
+      </c>
+      <c r="L44" t="s">
+        <v>174</v>
+      </c>
+      <c r="M44" t="s">
+        <v>177</v>
+      </c>
+      <c r="N44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>129</v>
+      </c>
+      <c r="I45" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" t="s">
+        <v>166</v>
+      </c>
+      <c r="K45" t="s">
+        <v>169</v>
+      </c>
+      <c r="L45" t="s">
+        <v>174</v>
+      </c>
+      <c r="M45" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" t="s">
+        <v>166</v>
+      </c>
+      <c r="J46" t="s">
+        <v>166</v>
+      </c>
+      <c r="K46" t="s">
+        <v>169</v>
+      </c>
+      <c r="L46" t="s">
+        <v>174</v>
+      </c>
+      <c r="M46" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" t="s">
+        <v>166</v>
+      </c>
+      <c r="J47" t="s">
+        <v>166</v>
+      </c>
+      <c r="K47" t="s">
+        <v>169</v>
+      </c>
+      <c r="L47" t="s">
+        <v>174</v>
+      </c>
+      <c r="M47" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
+        <v>144</v>
+      </c>
+      <c r="I48" t="s">
+        <v>166</v>
+      </c>
+      <c r="J48" t="s">
+        <v>166</v>
+      </c>
+      <c r="K48" t="s">
+        <v>169</v>
+      </c>
+      <c r="L48" t="s">
+        <v>174</v>
+      </c>
+      <c r="M48" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>15</v>
+      </c>
+      <c r="H49" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>166</v>
+      </c>
+      <c r="J49" t="s">
+        <v>166</v>
+      </c>
+      <c r="K49" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" t="s">
+        <v>174</v>
+      </c>
+      <c r="M49" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>146</v>
+      </c>
+      <c r="I50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J50" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" t="s">
+        <v>169</v>
+      </c>
+      <c r="L50" t="s">
+        <v>174</v>
+      </c>
+      <c r="M50" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+      <c r="I51" t="s">
+        <v>166</v>
+      </c>
+      <c r="J51" t="s">
+        <v>166</v>
+      </c>
+      <c r="K51" t="s">
+        <v>169</v>
+      </c>
+      <c r="L51" t="s">
+        <v>174</v>
+      </c>
+      <c r="M51" t="s">
+        <v>177</v>
+      </c>
+      <c r="N51" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>148</v>
+      </c>
+      <c r="I52" t="s">
+        <v>166</v>
+      </c>
+      <c r="J52" t="s">
+        <v>166</v>
+      </c>
+      <c r="K52" t="s">
+        <v>169</v>
+      </c>
+      <c r="L52" t="s">
+        <v>174</v>
+      </c>
+      <c r="M52" t="s">
+        <v>177</v>
+      </c>
+      <c r="N52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" t="s">
+        <v>166</v>
+      </c>
+      <c r="J53" t="s">
+        <v>166</v>
+      </c>
+      <c r="K53" t="s">
+        <v>169</v>
+      </c>
+      <c r="L53" t="s">
+        <v>174</v>
+      </c>
+      <c r="M53" t="s">
+        <v>177</v>
+      </c>
+      <c r="N53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" t="s">
+        <v>166</v>
+      </c>
+      <c r="K54" t="s">
+        <v>169</v>
+      </c>
+      <c r="L54" t="s">
+        <v>174</v>
+      </c>
+      <c r="M54" t="s">
+        <v>177</v>
+      </c>
+      <c r="N54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55" t="s">
+        <v>151</v>
+      </c>
+      <c r="I55" t="s">
+        <v>166</v>
+      </c>
+      <c r="J55" t="s">
+        <v>166</v>
+      </c>
+      <c r="K55" t="s">
+        <v>169</v>
+      </c>
+      <c r="L55" t="s">
+        <v>174</v>
+      </c>
+      <c r="M55" t="s">
+        <v>177</v>
+      </c>
+      <c r="N55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
+        <v>152</v>
+      </c>
+      <c r="I56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J56" t="s">
+        <v>166</v>
+      </c>
+      <c r="K56" t="s">
+        <v>169</v>
+      </c>
+      <c r="L56" t="s">
+        <v>174</v>
+      </c>
+      <c r="M56" t="s">
+        <v>177</v>
+      </c>
+      <c r="N56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>153</v>
+      </c>
+      <c r="I57" t="s">
+        <v>166</v>
+      </c>
+      <c r="J57" t="s">
+        <v>166</v>
+      </c>
+      <c r="K57" t="s">
+        <v>169</v>
+      </c>
+      <c r="L57" t="s">
+        <v>174</v>
+      </c>
+      <c r="M57" t="s">
+        <v>177</v>
+      </c>
+      <c r="N57" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>154</v>
+      </c>
+      <c r="I58" t="s">
+        <v>166</v>
+      </c>
+      <c r="J58" t="s">
+        <v>166</v>
+      </c>
+      <c r="K58" t="s">
+        <v>169</v>
+      </c>
+      <c r="L58" t="s">
+        <v>174</v>
+      </c>
+      <c r="M58" t="s">
+        <v>177</v>
+      </c>
+      <c r="N58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>155</v>
+      </c>
+      <c r="I59" t="s">
+        <v>166</v>
+      </c>
+      <c r="J59" t="s">
+        <v>166</v>
+      </c>
+      <c r="K59" t="s">
+        <v>169</v>
+      </c>
+      <c r="L59" t="s">
+        <v>174</v>
+      </c>
+      <c r="M59" t="s">
+        <v>177</v>
+      </c>
+      <c r="N59" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>156</v>
+      </c>
+      <c r="I60" t="s">
+        <v>166</v>
+      </c>
+      <c r="J60" t="s">
+        <v>166</v>
+      </c>
+      <c r="K60" t="s">
+        <v>169</v>
+      </c>
+      <c r="L60" t="s">
+        <v>174</v>
+      </c>
+      <c r="M60" t="s">
+        <v>177</v>
+      </c>
+      <c r="N60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>157</v>
+      </c>
+      <c r="I61" t="s">
+        <v>166</v>
+      </c>
+      <c r="J61" t="s">
+        <v>166</v>
+      </c>
+      <c r="K61" t="s">
+        <v>169</v>
+      </c>
+      <c r="L61" t="s">
+        <v>174</v>
+      </c>
+      <c r="M61" t="s">
+        <v>177</v>
+      </c>
+      <c r="N61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>158</v>
+      </c>
+      <c r="I62" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62" t="s">
+        <v>166</v>
+      </c>
+      <c r="K62" t="s">
+        <v>169</v>
+      </c>
+      <c r="L62" t="s">
+        <v>174</v>
+      </c>
+      <c r="M62" t="s">
+        <v>177</v>
+      </c>
+      <c r="N62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>159</v>
+      </c>
+      <c r="I63" t="s">
+        <v>166</v>
+      </c>
+      <c r="J63" t="s">
+        <v>166</v>
+      </c>
+      <c r="K63" t="s">
+        <v>170</v>
+      </c>
+      <c r="L63" t="s">
+        <v>175</v>
+      </c>
+      <c r="M63" t="s">
+        <v>177</v>
+      </c>
+      <c r="N63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" t="s">
+        <v>166</v>
+      </c>
+      <c r="J64" t="s">
+        <v>166</v>
+      </c>
+      <c r="K64" t="s">
+        <v>170</v>
+      </c>
+      <c r="L64" t="s">
+        <v>175</v>
+      </c>
+      <c r="M64" t="s">
+        <v>177</v>
+      </c>
+      <c r="N64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>161</v>
+      </c>
+      <c r="I65" t="s">
+        <v>166</v>
+      </c>
+      <c r="J65" t="s">
+        <v>166</v>
+      </c>
+      <c r="K65" t="s">
+        <v>170</v>
+      </c>
+      <c r="L65" t="s">
+        <v>175</v>
+      </c>
+      <c r="M65" t="s">
+        <v>177</v>
+      </c>
+      <c r="N65" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" t="s">
+        <v>166</v>
+      </c>
+      <c r="J66" t="s">
+        <v>166</v>
+      </c>
+      <c r="K66" t="s">
+        <v>170</v>
+      </c>
+      <c r="L66" t="s">
+        <v>175</v>
+      </c>
+      <c r="M66" t="s">
+        <v>177</v>
+      </c>
+      <c r="N66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" t="s">
+        <v>166</v>
+      </c>
+      <c r="J67" t="s">
+        <v>166</v>
+      </c>
+      <c r="K67" t="s">
+        <v>170</v>
+      </c>
+      <c r="L67" t="s">
+        <v>175</v>
+      </c>
+      <c r="M67" t="s">
+        <v>177</v>
+      </c>
+      <c r="N67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>144</v>
+      </c>
+      <c r="I68" t="s">
+        <v>166</v>
+      </c>
+      <c r="J68" t="s">
+        <v>166</v>
+      </c>
+      <c r="K68" t="s">
+        <v>170</v>
+      </c>
+      <c r="L68" t="s">
+        <v>175</v>
+      </c>
+      <c r="M68" t="s">
+        <v>177</v>
+      </c>
+      <c r="N68" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" t="s">
+        <v>52</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>15</v>
+      </c>
+      <c r="H69" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" t="s">
+        <v>166</v>
+      </c>
+      <c r="J69" t="s">
+        <v>166</v>
+      </c>
+      <c r="K69" t="s">
+        <v>170</v>
+      </c>
+      <c r="L69" t="s">
+        <v>175</v>
+      </c>
+      <c r="M69" t="s">
+        <v>177</v>
+      </c>
+      <c r="N69" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>52</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>146</v>
+      </c>
+      <c r="I70" t="s">
+        <v>166</v>
+      </c>
+      <c r="J70" t="s">
+        <v>166</v>
+      </c>
+      <c r="K70" t="s">
+        <v>170</v>
+      </c>
+      <c r="L70" t="s">
+        <v>175</v>
+      </c>
+      <c r="M70" t="s">
+        <v>177</v>
+      </c>
+      <c r="N70" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>147</v>
+      </c>
+      <c r="I71" t="s">
+        <v>166</v>
+      </c>
+      <c r="J71" t="s">
+        <v>166</v>
+      </c>
+      <c r="K71" t="s">
+        <v>170</v>
+      </c>
+      <c r="L71" t="s">
+        <v>175</v>
+      </c>
+      <c r="M71" t="s">
+        <v>177</v>
+      </c>
+      <c r="N71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
+        <v>148</v>
+      </c>
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72" t="s">
+        <v>166</v>
+      </c>
+      <c r="K72" t="s">
+        <v>170</v>
+      </c>
+      <c r="L72" t="s">
+        <v>175</v>
+      </c>
+      <c r="M72" t="s">
+        <v>177</v>
+      </c>
+      <c r="N72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>149</v>
+      </c>
+      <c r="I73" t="s">
+        <v>166</v>
+      </c>
+      <c r="J73" t="s">
+        <v>166</v>
+      </c>
+      <c r="K73" t="s">
+        <v>170</v>
+      </c>
+      <c r="L73" t="s">
+        <v>175</v>
+      </c>
+      <c r="M73" t="s">
+        <v>177</v>
+      </c>
+      <c r="N73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>99</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>150</v>
+      </c>
+      <c r="I74" t="s">
+        <v>166</v>
+      </c>
+      <c r="J74" t="s">
+        <v>166</v>
+      </c>
+      <c r="K74" t="s">
+        <v>170</v>
+      </c>
+      <c r="L74" t="s">
+        <v>175</v>
+      </c>
+      <c r="M74" t="s">
+        <v>177</v>
+      </c>
+      <c r="N74" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" t="s">
+        <v>100</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>8</v>
+      </c>
+      <c r="H75" t="s">
+        <v>151</v>
+      </c>
+      <c r="I75" t="s">
+        <v>166</v>
+      </c>
+      <c r="J75" t="s">
+        <v>166</v>
+      </c>
+      <c r="K75" t="s">
+        <v>170</v>
+      </c>
+      <c r="L75" t="s">
+        <v>175</v>
+      </c>
+      <c r="M75" t="s">
+        <v>177</v>
+      </c>
+      <c r="N75" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>152</v>
+      </c>
+      <c r="I76" t="s">
+        <v>166</v>
+      </c>
+      <c r="J76" t="s">
+        <v>166</v>
+      </c>
+      <c r="K76" t="s">
+        <v>170</v>
+      </c>
+      <c r="L76" t="s">
+        <v>175</v>
+      </c>
+      <c r="M76" t="s">
+        <v>177</v>
+      </c>
+      <c r="N76" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" t="s">
+        <v>102</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>153</v>
+      </c>
+      <c r="I77" t="s">
+        <v>166</v>
+      </c>
+      <c r="J77" t="s">
+        <v>166</v>
+      </c>
+      <c r="K77" t="s">
+        <v>170</v>
+      </c>
+      <c r="L77" t="s">
+        <v>175</v>
+      </c>
+      <c r="M77" t="s">
+        <v>177</v>
+      </c>
+      <c r="N77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>154</v>
+      </c>
+      <c r="I78" t="s">
+        <v>166</v>
+      </c>
+      <c r="J78" t="s">
+        <v>166</v>
+      </c>
+      <c r="K78" t="s">
+        <v>170</v>
+      </c>
+      <c r="L78" t="s">
+        <v>175</v>
+      </c>
+      <c r="M78" t="s">
+        <v>177</v>
+      </c>
+      <c r="N78" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>155</v>
+      </c>
+      <c r="I79" t="s">
+        <v>166</v>
+      </c>
+      <c r="J79" t="s">
+        <v>166</v>
+      </c>
+      <c r="K79" t="s">
+        <v>170</v>
+      </c>
+      <c r="L79" t="s">
+        <v>175</v>
+      </c>
+      <c r="M79" t="s">
+        <v>177</v>
+      </c>
+      <c r="N79" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" t="s">
+        <v>78</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>156</v>
+      </c>
+      <c r="I80" t="s">
+        <v>166</v>
+      </c>
+      <c r="J80" t="s">
+        <v>166</v>
+      </c>
+      <c r="K80" t="s">
+        <v>170</v>
+      </c>
+      <c r="L80" t="s">
+        <v>175</v>
+      </c>
+      <c r="M80" t="s">
+        <v>177</v>
+      </c>
+      <c r="N80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>157</v>
+      </c>
+      <c r="I81" t="s">
+        <v>166</v>
+      </c>
+      <c r="J81" t="s">
+        <v>166</v>
+      </c>
+      <c r="K81" t="s">
+        <v>170</v>
+      </c>
+      <c r="L81" t="s">
+        <v>175</v>
+      </c>
+      <c r="M81" t="s">
+        <v>177</v>
+      </c>
+      <c r="N81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" t="s">
+        <v>52</v>
+      </c>
+      <c r="D82" t="s">
+        <v>80</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>158</v>
+      </c>
+      <c r="I82" t="s">
+        <v>166</v>
+      </c>
+      <c r="J82" t="s">
+        <v>166</v>
+      </c>
+      <c r="K82" t="s">
+        <v>170</v>
+      </c>
+      <c r="L82" t="s">
+        <v>175</v>
+      </c>
+      <c r="M82" t="s">
+        <v>177</v>
+      </c>
+      <c r="N82" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="I42" t="s">
-        <v>109</v>
-      </c>
-      <c r="J42" t="s">
-        <v>109</v>
-      </c>
-      <c r="K42" t="s">
-        <v>111</v>
-      </c>
-      <c r="L42" t="s">
-        <v>113</v>
-      </c>
-      <c r="M42" t="s">
-        <v>114</v>
-      </c>
-      <c r="N42" t="s">
-        <v>115</v>
+      <c r="B83" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" t="s">
+        <v>54</v>
+      </c>
+      <c r="D83" t="s">
+        <v>104</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>128</v>
+      </c>
+      <c r="I83" t="s">
+        <v>166</v>
+      </c>
+      <c r="J83" t="s">
+        <v>166</v>
+      </c>
+      <c r="K83" t="s">
+        <v>171</v>
+      </c>
+      <c r="L83" t="s">
+        <v>176</v>
+      </c>
+      <c r="M83" t="s">
+        <v>177</v>
+      </c>
+      <c r="N83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>162</v>
+      </c>
+      <c r="I84" t="s">
+        <v>166</v>
+      </c>
+      <c r="J84" t="s">
+        <v>166</v>
+      </c>
+      <c r="K84" t="s">
+        <v>171</v>
+      </c>
+      <c r="L84" t="s">
+        <v>176</v>
+      </c>
+      <c r="M84" t="s">
+        <v>177</v>
+      </c>
+      <c r="N84" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" t="s">
+        <v>106</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>163</v>
+      </c>
+      <c r="I85" t="s">
+        <v>166</v>
+      </c>
+      <c r="J85" t="s">
+        <v>166</v>
+      </c>
+      <c r="K85" t="s">
+        <v>171</v>
+      </c>
+      <c r="L85" t="s">
+        <v>176</v>
+      </c>
+      <c r="M85" t="s">
+        <v>177</v>
+      </c>
+      <c r="N85" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" t="s">
+        <v>89</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>164</v>
+      </c>
+      <c r="I86" t="s">
+        <v>166</v>
+      </c>
+      <c r="J86" t="s">
+        <v>166</v>
+      </c>
+      <c r="K86" t="s">
+        <v>171</v>
+      </c>
+      <c r="L86" t="s">
+        <v>176</v>
+      </c>
+      <c r="M86" t="s">
+        <v>177</v>
+      </c>
+      <c r="N86" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" t="s">
+        <v>91</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>165</v>
+      </c>
+      <c r="I87" t="s">
+        <v>166</v>
+      </c>
+      <c r="J87" t="s">
+        <v>166</v>
+      </c>
+      <c r="K87" t="s">
+        <v>171</v>
+      </c>
+      <c r="L87" t="s">
+        <v>176</v>
+      </c>
+      <c r="M87" t="s">
+        <v>177</v>
+      </c>
+      <c r="N87" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" t="s">
+        <v>93</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>143</v>
+      </c>
+      <c r="I88" t="s">
+        <v>166</v>
+      </c>
+      <c r="J88" t="s">
+        <v>166</v>
+      </c>
+      <c r="K88" t="s">
+        <v>171</v>
+      </c>
+      <c r="L88" t="s">
+        <v>176</v>
+      </c>
+      <c r="M88" t="s">
+        <v>177</v>
+      </c>
+      <c r="N88" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+      <c r="H89" t="s">
+        <v>144</v>
+      </c>
+      <c r="I89" t="s">
+        <v>166</v>
+      </c>
+      <c r="J89" t="s">
+        <v>166</v>
+      </c>
+      <c r="K89" t="s">
+        <v>171</v>
+      </c>
+      <c r="L89" t="s">
+        <v>176</v>
+      </c>
+      <c r="M89" t="s">
+        <v>177</v>
+      </c>
+      <c r="N89" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>52</v>
+      </c>
+      <c r="D90" t="s">
+        <v>95</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>18</v>
+      </c>
+      <c r="H90" t="s">
+        <v>145</v>
+      </c>
+      <c r="I90" t="s">
+        <v>166</v>
+      </c>
+      <c r="J90" t="s">
+        <v>166</v>
+      </c>
+      <c r="K90" t="s">
+        <v>171</v>
+      </c>
+      <c r="L90" t="s">
+        <v>176</v>
+      </c>
+      <c r="M90" t="s">
+        <v>177</v>
+      </c>
+      <c r="N90" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" t="s">
+        <v>52</v>
+      </c>
+      <c r="D91" t="s">
+        <v>96</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>146</v>
+      </c>
+      <c r="I91" t="s">
+        <v>166</v>
+      </c>
+      <c r="J91" t="s">
+        <v>166</v>
+      </c>
+      <c r="K91" t="s">
+        <v>171</v>
+      </c>
+      <c r="L91" t="s">
+        <v>176</v>
+      </c>
+      <c r="M91" t="s">
+        <v>177</v>
+      </c>
+      <c r="N91" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" t="s">
+        <v>97</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>147</v>
+      </c>
+      <c r="I92" t="s">
+        <v>166</v>
+      </c>
+      <c r="J92" t="s">
+        <v>166</v>
+      </c>
+      <c r="K92" t="s">
+        <v>171</v>
+      </c>
+      <c r="L92" t="s">
+        <v>176</v>
+      </c>
+      <c r="M92" t="s">
+        <v>177</v>
+      </c>
+      <c r="N92" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>45</v>
+      </c>
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93" t="s">
+        <v>148</v>
+      </c>
+      <c r="I93" t="s">
+        <v>166</v>
+      </c>
+      <c r="J93" t="s">
+        <v>166</v>
+      </c>
+      <c r="K93" t="s">
+        <v>171</v>
+      </c>
+      <c r="L93" t="s">
+        <v>176</v>
+      </c>
+      <c r="M93" t="s">
+        <v>177</v>
+      </c>
+      <c r="N93" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>149</v>
+      </c>
+      <c r="I94" t="s">
+        <v>166</v>
+      </c>
+      <c r="J94" t="s">
+        <v>166</v>
+      </c>
+      <c r="K94" t="s">
+        <v>171</v>
+      </c>
+      <c r="L94" t="s">
+        <v>176</v>
+      </c>
+      <c r="M94" t="s">
+        <v>177</v>
+      </c>
+      <c r="N94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>99</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
+      <c r="H95" t="s">
+        <v>150</v>
+      </c>
+      <c r="I95" t="s">
+        <v>166</v>
+      </c>
+      <c r="J95" t="s">
+        <v>166</v>
+      </c>
+      <c r="K95" t="s">
+        <v>171</v>
+      </c>
+      <c r="L95" t="s">
+        <v>176</v>
+      </c>
+      <c r="M95" t="s">
+        <v>177</v>
+      </c>
+      <c r="N95" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" t="s">
+        <v>100</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>8</v>
+      </c>
+      <c r="H96" t="s">
+        <v>151</v>
+      </c>
+      <c r="I96" t="s">
+        <v>166</v>
+      </c>
+      <c r="J96" t="s">
+        <v>166</v>
+      </c>
+      <c r="K96" t="s">
+        <v>171</v>
+      </c>
+      <c r="L96" t="s">
+        <v>176</v>
+      </c>
+      <c r="M96" t="s">
+        <v>177</v>
+      </c>
+      <c r="N96" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>47</v>
+      </c>
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>152</v>
+      </c>
+      <c r="I97" t="s">
+        <v>166</v>
+      </c>
+      <c r="J97" t="s">
+        <v>166</v>
+      </c>
+      <c r="K97" t="s">
+        <v>171</v>
+      </c>
+      <c r="L97" t="s">
+        <v>176</v>
+      </c>
+      <c r="M97" t="s">
+        <v>177</v>
+      </c>
+      <c r="N97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>153</v>
+      </c>
+      <c r="I98" t="s">
+        <v>166</v>
+      </c>
+      <c r="J98" t="s">
+        <v>166</v>
+      </c>
+      <c r="K98" t="s">
+        <v>171</v>
+      </c>
+      <c r="L98" t="s">
+        <v>176</v>
+      </c>
+      <c r="M98" t="s">
+        <v>177</v>
+      </c>
+      <c r="N98" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>49</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" t="s">
+        <v>103</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>154</v>
+      </c>
+      <c r="I99" t="s">
+        <v>166</v>
+      </c>
+      <c r="J99" t="s">
+        <v>166</v>
+      </c>
+      <c r="K99" t="s">
+        <v>171</v>
+      </c>
+      <c r="L99" t="s">
+        <v>176</v>
+      </c>
+      <c r="M99" t="s">
+        <v>177</v>
+      </c>
+      <c r="N99" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" t="s">
+        <v>52</v>
+      </c>
+      <c r="D100" t="s">
+        <v>76</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+      <c r="G100">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>155</v>
+      </c>
+      <c r="I100" t="s">
+        <v>166</v>
+      </c>
+      <c r="J100" t="s">
+        <v>166</v>
+      </c>
+      <c r="K100" t="s">
+        <v>171</v>
+      </c>
+      <c r="L100" t="s">
+        <v>176</v>
+      </c>
+      <c r="M100" t="s">
+        <v>177</v>
+      </c>
+      <c r="N100" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" t="s">
+        <v>78</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>156</v>
+      </c>
+      <c r="I101" t="s">
+        <v>166</v>
+      </c>
+      <c r="J101" t="s">
+        <v>166</v>
+      </c>
+      <c r="K101" t="s">
+        <v>171</v>
+      </c>
+      <c r="L101" t="s">
+        <v>176</v>
+      </c>
+      <c r="M101" t="s">
+        <v>177</v>
+      </c>
+      <c r="N101" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" t="s">
+        <v>166</v>
+      </c>
+      <c r="J102" t="s">
+        <v>166</v>
+      </c>
+      <c r="K102" t="s">
+        <v>171</v>
+      </c>
+      <c r="L102" t="s">
+        <v>176</v>
+      </c>
+      <c r="M102" t="s">
+        <v>177</v>
+      </c>
+      <c r="N102" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
